--- a/static/uploads/data_Test.xlsx
+++ b/static/uploads/data_Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\YoProgramo\python\Api_FastAPI\exel_to_database\static\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\YoProgramo\python\Api_FastAPI\excel_validate\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427655B1-5A42-4A3F-AB93-0E4E49D78F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658CBF50-3A82-4446-8450-BC32F44B05CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="1515" windowWidth="21600" windowHeight="11835" xr2:uid="{FCE606B2-40F1-469F-A927-FD75F1CDBDAF}"/>
+    <workbookView xWindow="3570" yWindow="3210" windowWidth="21615" windowHeight="11835" xr2:uid="{FCE606B2-40F1-469F-A927-FD75F1CDBDAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -36,27 +36,12 @@
     <t>APELLIDO</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Nico</t>
-  </si>
-  <si>
     <t>Martin</t>
   </si>
   <si>
     <t>Ramirez</t>
   </si>
   <si>
-    <t>tsdt@outlook.com.ar</t>
-  </si>
-  <si>
-    <t>adri@gmail.com</t>
-  </si>
-  <si>
-    <t>Adri</t>
-  </si>
-  <si>
     <t>Parra</t>
   </si>
   <si>
@@ -66,92 +51,179 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>daniel-juarez@outlook.com.ar</t>
-  </si>
-  <si>
-    <t>ramiro28@hotmail.com</t>
-  </si>
-  <si>
-    <t>tincho22@outlook.com.ar</t>
-  </si>
-  <si>
-    <t>Alberto</t>
-  </si>
-  <si>
-    <t>albertfsf@hotmail.com</t>
-  </si>
-  <si>
-    <t>Adrian-et@hotmail.com</t>
-  </si>
-  <si>
-    <t>Matias</t>
-  </si>
-  <si>
-    <t>matig@gmail.com</t>
-  </si>
-  <si>
-    <t>marian@outlook.com.ar</t>
-  </si>
-  <si>
-    <t>Nicole</t>
-  </si>
-  <si>
-    <t>Herrera</t>
-  </si>
-  <si>
-    <t>nicole08@gmail.com</t>
-  </si>
-  <si>
-    <t>rami22@hotmail.com</t>
-  </si>
-  <si>
-    <t>Pinat</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Corrientes 777</t>
-  </si>
-  <si>
-    <t>Corrientes 778</t>
-  </si>
-  <si>
-    <t>Corrientes 779</t>
-  </si>
-  <si>
-    <t>Corrientes 780</t>
-  </si>
-  <si>
-    <t>Corrientes 781</t>
-  </si>
-  <si>
-    <t>Corrientes 782</t>
-  </si>
-  <si>
-    <t>Corrientes 783</t>
-  </si>
-  <si>
-    <t>Corrientes 784</t>
-  </si>
-  <si>
-    <t>Corrientes 785</t>
-  </si>
-  <si>
-    <t>Corrientes 786</t>
-  </si>
-  <si>
-    <t>Corrientes 787</t>
+    <t>email</t>
+  </si>
+  <si>
+    <t>SSN</t>
+  </si>
+  <si>
+    <t>institute</t>
+  </si>
+  <si>
+    <t>CUIL</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>nico</t>
+  </si>
+  <si>
+    <t>(123) 321-4586</t>
+  </si>
+  <si>
+    <t>tini@gmail.com</t>
+  </si>
+  <si>
+    <t>123-45-6789</t>
+  </si>
+  <si>
+    <t>Harvard</t>
+  </si>
+  <si>
+    <t>20-13344567-9</t>
+  </si>
+  <si>
+    <t>07/18/2024</t>
+  </si>
+  <si>
+    <t>(123) 321-4587</t>
+  </si>
+  <si>
+    <t>rami18@gmail.com</t>
+  </si>
+  <si>
+    <t>123-45-6790</t>
+  </si>
+  <si>
+    <t>san francisco</t>
+  </si>
+  <si>
+    <t>20-13344567-1</t>
+  </si>
+  <si>
+    <t>07/18/2025</t>
+  </si>
+  <si>
+    <t>(154) 321-4596</t>
+  </si>
+  <si>
+    <t>123-45-6791</t>
+  </si>
+  <si>
+    <t>07/18/2026</t>
+  </si>
+  <si>
+    <t>Romina</t>
+  </si>
+  <si>
+    <t>123-45-6792</t>
+  </si>
+  <si>
+    <t>07/18/2027</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Duarte</t>
+  </si>
+  <si>
+    <t>(123) 321-4590</t>
+  </si>
+  <si>
+    <t>tini@gmail.comx</t>
+  </si>
+  <si>
+    <t>123-45-6793</t>
+  </si>
+  <si>
+    <t>santa cat.</t>
+  </si>
+  <si>
+    <t>07/18/2028</t>
+  </si>
+  <si>
+    <t>(123) 321-4591</t>
+  </si>
+  <si>
+    <t>fsdf@hotmail</t>
+  </si>
+  <si>
+    <t>123-45-6794</t>
+  </si>
+  <si>
+    <t>07/18/2029</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>(123) 321-4592</t>
+  </si>
+  <si>
+    <t>tinifsd@gmail.com</t>
+  </si>
+  <si>
+    <t>123-45-6795</t>
+  </si>
+  <si>
+    <t>(123) 321-4593</t>
+  </si>
+  <si>
+    <t>20-13344567-5</t>
+  </si>
+  <si>
+    <t>Ramiro</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>154-321-4596</t>
+  </si>
+  <si>
+    <t>fsfrgmail@sdfsdf.com</t>
+  </si>
+  <si>
+    <t>123-45-6797</t>
+  </si>
+  <si>
+    <t>20-13344567-4</t>
+  </si>
+  <si>
+    <t>Romero</t>
+  </si>
+  <si>
+    <t>(123) 321-4595</t>
+  </si>
+  <si>
+    <t>ptifsdfni8@gmailcom</t>
+  </si>
+  <si>
+    <t>123-45-6798</t>
+  </si>
+  <si>
+    <t>20-13344567-3</t>
+  </si>
+  <si>
+    <t>123-45-6799</t>
+  </si>
+  <si>
+    <t>20-13344567-2</t>
+  </si>
+  <si>
+    <t>tinigmail.co</t>
+  </si>
+  <si>
+    <t>123-45-6796</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,13 +241,6 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -225,13 +290,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -547,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C7BD24-0FE9-4293-9527-41ECC501086D}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,9 +622,11 @@
     <col min="4" max="4" width="26.7109375" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,250 +637,357 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>4234236123</v>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>2344236123</v>
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>4424236123</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>2554236123</v>
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>4234236199</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>3434236123</v>
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8">
-        <v>1134236123</v>
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>3434534534</v>
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>2342423434</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1834236123</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>1534236144</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{A1CA829E-94A4-42EC-9C80-B45A6E8AD676}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{ED277F60-AE28-429A-93E4-CFFB9D2FEEB5}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{FDC830E7-2898-4EC5-B144-2A28611F3C91}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{609029A4-31D1-41F1-ACB9-01A93EE4A633}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{2E74A36D-BA21-4EC5-8D2F-33B6D902AA42}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{C256CE93-8028-414C-9D55-85587ADFFD50}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{8CD82977-6BAE-47F6-8C2C-5AC467D5D22C}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{0BA58937-16CB-4500-A422-7420E6024B8C}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{7953B782-26EA-4E36-8F4D-A7B41997A87B}"/>
-    <hyperlink ref="D12" r:id="rId10" xr:uid="{CA8628B9-659D-4EA9-A854-4A2131BABE81}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{FF0355EE-124F-4240-9ECF-0726D34BF09D}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{C0206F5F-C212-41E0-A03B-DB39011C61FC}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{BD6DC048-C25A-448A-9CF8-D882690CA223}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{4F60DA6A-FFD9-4BD0-9362-1BF89CF09CAA}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{A3D6B28A-03E1-453B-BF0C-6106AF686F38}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{95A2C387-67EE-4F40-97F9-A393BA9272EC}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{06F2633F-B60C-4BAD-AFC3-7F65FD92636F}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{C70E2427-77EE-4038-8DB6-226476E6DDCF}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{587130AE-6B0A-476D-9945-D858F0BB50B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>